--- a/clusterCurrentSolution.xlsx
+++ b/clusterCurrentSolution.xlsx
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B202"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C159"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -360,9 +360,17 @@
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -370,7 +378,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -378,7 +386,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -386,7 +394,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -394,7 +402,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -402,7 +410,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -410,7 +418,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -418,7 +426,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -426,7 +434,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -434,7 +442,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -442,7 +450,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -450,7 +458,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -458,7 +466,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -466,7 +474,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -474,7 +482,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -482,7 +490,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -490,7 +498,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -498,7 +506,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -506,7 +514,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -514,7 +522,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -522,7 +530,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -530,7 +538,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -538,7 +546,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -546,7 +554,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -554,7 +562,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -562,7 +570,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -570,7 +578,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -578,7 +586,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -586,7 +594,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -594,7 +602,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -602,7 +610,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -610,7 +618,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -618,7 +626,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -626,7 +634,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -634,7 +642,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -642,7 +650,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -650,7 +658,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -658,7 +666,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -666,7 +674,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -674,7 +682,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -682,7 +690,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -690,7 +698,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -698,7 +706,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -706,7 +714,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -714,7 +722,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -722,7 +730,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -730,7 +738,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -738,7 +746,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -746,7 +754,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -754,7 +762,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -762,7 +770,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -770,7 +778,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -778,7 +786,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -786,7 +794,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -794,7 +802,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -802,7 +810,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -810,7 +818,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -818,7 +826,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -826,7 +834,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -834,7 +842,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -842,7 +850,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -850,7 +858,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -858,7 +866,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -866,7 +874,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -874,7 +882,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -882,7 +890,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -890,7 +898,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -898,7 +906,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -906,7 +914,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -914,7 +922,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -922,7 +930,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -930,7 +938,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -938,7 +946,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -946,7 +954,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -954,7 +962,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -962,7 +970,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -970,7 +978,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -978,7 +986,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -986,7 +994,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -994,7 +1002,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1002,7 +1010,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1010,7 +1018,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1018,7 +1026,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1026,7 +1034,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1034,7 +1042,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1042,7 +1050,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1050,7 +1058,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1058,7 +1066,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1066,7 +1074,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1074,7 +1082,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1082,7 +1090,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1090,7 +1098,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1098,7 +1106,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1106,7 +1114,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1114,7 +1122,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1122,7 +1130,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -1130,7 +1138,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -1138,7 +1146,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -1146,7 +1154,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1154,7 +1162,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -1162,7 +1170,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1170,7 +1178,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1178,7 +1186,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -1186,7 +1194,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -1194,7 +1202,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -1202,7 +1210,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -1210,7 +1218,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -1218,7 +1226,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -1226,7 +1234,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -1234,7 +1242,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -1242,7 +1250,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -1250,7 +1258,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -1258,7 +1266,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -1266,7 +1274,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -1274,7 +1282,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -1282,7 +1290,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -1290,7 +1298,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -1298,7 +1306,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -1306,7 +1314,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -1314,7 +1322,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -1322,7 +1330,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -1330,7 +1338,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -1338,7 +1346,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -1346,7 +1354,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -1354,7 +1362,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -1362,7 +1370,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -1370,7 +1378,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -1378,7 +1386,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -1386,7 +1394,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -1394,7 +1402,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -1402,7 +1410,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -1410,7 +1418,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -1418,7 +1426,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -1426,7 +1434,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -1434,7 +1442,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -1442,7 +1450,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -1450,7 +1458,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -1458,7 +1466,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -1466,7 +1474,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1474,7 +1482,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -1482,7 +1490,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1490,7 +1498,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1498,7 +1506,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -1506,7 +1514,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -1514,7 +1522,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -1522,7 +1530,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1530,7 +1538,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1538,7 +1546,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1546,7 +1554,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1554,7 +1562,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1562,7 +1570,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1570,7 +1578,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1578,7 +1586,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1586,7 +1594,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1594,7 +1602,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1602,7 +1610,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1610,19 +1618,14 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>244</v>
-      </c>
-      <c r="B159">
-        <v>0</v>
-      </c>
+      <c r="A159" s="1"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
@@ -1749,9 +1752,6 @@
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A1:A158">
@@ -3046,7 +3046,7 @@
   <dimension ref="A1:B158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4325,7 +4325,7 @@
   <dimension ref="A1:B158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C158"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/clusterCurrentSolution.xlsx
+++ b/clusterCurrentSolution.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\masteroppgave-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\masteroppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,19 +30,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -86,12 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -374,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B202"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B37"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +378,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>155</v>
       </c>
       <c r="B1">
@@ -395,7 +386,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>242</v>
       </c>
       <c r="B2">
@@ -403,7 +394,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>126</v>
       </c>
       <c r="B3">
@@ -411,7 +402,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>137</v>
       </c>
       <c r="B4">
@@ -419,7 +410,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5">
@@ -427,7 +418,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>245</v>
       </c>
       <c r="B6">
@@ -435,7 +426,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>67</v>
       </c>
       <c r="B7">
@@ -443,7 +434,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>66</v>
       </c>
       <c r="B8">
@@ -451,7 +442,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>71</v>
       </c>
       <c r="B9">
@@ -459,7 +450,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>40</v>
       </c>
       <c r="B10">
@@ -467,7 +458,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>233</v>
       </c>
       <c r="B11">
@@ -475,7 +466,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>235</v>
       </c>
       <c r="B12">
@@ -483,7 +474,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>182</v>
       </c>
       <c r="B13">
@@ -491,7 +482,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>41</v>
       </c>
       <c r="B14">
@@ -499,7 +490,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>43</v>
       </c>
       <c r="B15">
@@ -507,7 +498,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>36</v>
       </c>
       <c r="B16">
@@ -515,7 +506,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>116</v>
       </c>
       <c r="B17">
@@ -523,7 +514,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>234</v>
       </c>
       <c r="B18">
@@ -531,7 +522,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>142</v>
       </c>
       <c r="B19">
@@ -539,7 +530,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>145</v>
       </c>
       <c r="B20">
@@ -547,7 +538,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>161</v>
       </c>
       <c r="B21">
@@ -555,7 +546,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>68</v>
       </c>
       <c r="B22">
@@ -563,7 +554,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>28</v>
       </c>
       <c r="B23">
@@ -571,7 +562,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>74</v>
       </c>
       <c r="B24">
@@ -579,7 +570,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>33</v>
       </c>
       <c r="B25">
@@ -587,7 +578,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>84</v>
       </c>
       <c r="B26">
@@ -595,7 +586,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>29</v>
       </c>
       <c r="B27">
@@ -603,7 +594,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>157</v>
       </c>
       <c r="B28">
@@ -611,7 +602,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>32</v>
       </c>
       <c r="B29">
@@ -619,7 +610,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>34</v>
       </c>
       <c r="B30">
@@ -627,7 +618,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>198</v>
       </c>
       <c r="B31">
@@ -635,7 +626,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>165</v>
       </c>
       <c r="B32">
@@ -643,7 +634,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>58</v>
       </c>
       <c r="B33">
@@ -651,7 +642,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>83</v>
       </c>
       <c r="B34">
@@ -659,7 +650,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>162</v>
       </c>
       <c r="B35">
@@ -667,7 +658,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>114</v>
       </c>
       <c r="B36">
@@ -675,507 +666,12 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A1:A158">
@@ -1188,16 +684,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A68" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>155</v>
       </c>
       <c r="B1">
@@ -1205,7 +701,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>242</v>
       </c>
       <c r="B2">
@@ -1213,7 +709,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>126</v>
       </c>
       <c r="B3">
@@ -1221,7 +717,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>137</v>
       </c>
       <c r="B4">
@@ -1229,7 +725,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5">
@@ -1237,7 +733,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>245</v>
       </c>
       <c r="B6">
@@ -1245,7 +741,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>67</v>
       </c>
       <c r="B7">
@@ -1253,7 +749,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>66</v>
       </c>
       <c r="B8">
@@ -1261,7 +757,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>71</v>
       </c>
       <c r="B9">
@@ -1269,7 +765,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>40</v>
       </c>
       <c r="B10">
@@ -1277,7 +773,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>233</v>
       </c>
       <c r="B11">
@@ -1285,7 +781,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>235</v>
       </c>
       <c r="B12">
@@ -1293,7 +789,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>182</v>
       </c>
       <c r="B13">
@@ -1301,7 +797,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>41</v>
       </c>
       <c r="B14">
@@ -1309,7 +805,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>43</v>
       </c>
       <c r="B15">
@@ -1317,7 +813,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>36</v>
       </c>
       <c r="B16">
@@ -1325,7 +821,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>116</v>
       </c>
       <c r="B17">
@@ -1333,7 +829,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>234</v>
       </c>
       <c r="B18">
@@ -1341,7 +837,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>142</v>
       </c>
       <c r="B19">
@@ -1349,7 +845,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>145</v>
       </c>
       <c r="B20">
@@ -1357,7 +853,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>161</v>
       </c>
       <c r="B21">
@@ -1365,7 +861,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>68</v>
       </c>
       <c r="B22">
@@ -1373,7 +869,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>28</v>
       </c>
       <c r="B23">
@@ -1381,7 +877,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>74</v>
       </c>
       <c r="B24">
@@ -1389,7 +885,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>33</v>
       </c>
       <c r="B25">
@@ -1397,7 +893,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>84</v>
       </c>
       <c r="B26">
@@ -1405,7 +901,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>29</v>
       </c>
       <c r="B27">
@@ -1413,7 +909,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>157</v>
       </c>
       <c r="B28">
@@ -1421,7 +917,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>32</v>
       </c>
       <c r="B29">
@@ -1429,7 +925,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>34</v>
       </c>
       <c r="B30">
@@ -1437,7 +933,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>198</v>
       </c>
       <c r="B31">
@@ -1445,7 +941,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>165</v>
       </c>
       <c r="B32">
@@ -1453,7 +949,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>58</v>
       </c>
       <c r="B33">
@@ -1461,7 +957,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>83</v>
       </c>
       <c r="B34">
@@ -1469,7 +965,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>162</v>
       </c>
       <c r="B35">
@@ -1477,7 +973,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>114</v>
       </c>
       <c r="B36">
@@ -1485,7 +981,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>45</v>
       </c>
       <c r="B37">
@@ -1493,7 +989,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>138</v>
       </c>
       <c r="B38">
@@ -1501,7 +997,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>73</v>
       </c>
       <c r="B39">
@@ -1509,7 +1005,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>154</v>
       </c>
       <c r="B40">
@@ -1517,7 +1013,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>65</v>
       </c>
       <c r="B41">
@@ -1525,7 +1021,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>70</v>
       </c>
       <c r="B42">
@@ -1533,7 +1029,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>101</v>
       </c>
       <c r="B43">
@@ -1541,7 +1037,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>221</v>
       </c>
       <c r="B44">
@@ -1549,7 +1045,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>48</v>
       </c>
       <c r="B45">
@@ -1557,7 +1053,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>104</v>
       </c>
       <c r="B46">
@@ -1565,7 +1061,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>105</v>
       </c>
       <c r="B47">
@@ -1573,7 +1069,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>141</v>
       </c>
       <c r="B48">
@@ -1581,7 +1077,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>103</v>
       </c>
       <c r="B49">
@@ -1589,7 +1085,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>169</v>
       </c>
       <c r="B50">
@@ -1597,7 +1093,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>210</v>
       </c>
       <c r="B51">
@@ -1605,7 +1101,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>230</v>
       </c>
       <c r="B52">
@@ -1613,7 +1109,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>64</v>
       </c>
       <c r="B53">
@@ -1621,7 +1117,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>123</v>
       </c>
       <c r="B54">
@@ -1629,7 +1125,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>89</v>
       </c>
       <c r="B55">
@@ -1637,7 +1133,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>92</v>
       </c>
       <c r="B56">
@@ -1645,7 +1141,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>100</v>
       </c>
       <c r="B57">
@@ -1653,7 +1149,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>87</v>
       </c>
       <c r="B58">
@@ -1661,7 +1157,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>148</v>
       </c>
       <c r="B59">
@@ -1669,7 +1165,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>44</v>
       </c>
       <c r="B60">
@@ -1677,7 +1173,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>93</v>
       </c>
       <c r="B61">
@@ -1685,7 +1181,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>76</v>
       </c>
       <c r="B62">
@@ -1693,7 +1189,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>159</v>
       </c>
       <c r="B63">
@@ -1701,7 +1197,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>35</v>
       </c>
       <c r="B64">
@@ -1709,291 +1205,12 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>244</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
-    </row>
-    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2"/>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2"/>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2"/>
-    </row>
-    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
-    </row>
-    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2"/>
-    </row>
-    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
-    </row>
-    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2"/>
-    </row>
-    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2"/>
-    </row>
-    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2"/>
-    </row>
-    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2"/>
-    </row>
-    <row r="82" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
-    </row>
-    <row r="83" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2"/>
-    </row>
-    <row r="84" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2"/>
-    </row>
-    <row r="85" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2"/>
-    </row>
-    <row r="86" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2"/>
-    </row>
-    <row r="87" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2"/>
-    </row>
-    <row r="88" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2"/>
-    </row>
-    <row r="89" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2"/>
-    </row>
-    <row r="90" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2"/>
-    </row>
-    <row r="91" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2"/>
-    </row>
-    <row r="92" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2"/>
-    </row>
-    <row r="93" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
-    </row>
-    <row r="94" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
-    </row>
-    <row r="95" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
-    </row>
-    <row r="96" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
-    </row>
-    <row r="97" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
-    </row>
-    <row r="98" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2002,16 +1219,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D98" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>155</v>
       </c>
       <c r="B1">
@@ -2019,7 +1236,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>242</v>
       </c>
       <c r="B2">
@@ -2027,7 +1244,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>126</v>
       </c>
       <c r="B3">
@@ -2035,7 +1252,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>137</v>
       </c>
       <c r="B4">
@@ -2043,7 +1260,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5">
@@ -2051,7 +1268,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>245</v>
       </c>
       <c r="B6">
@@ -2059,7 +1276,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>67</v>
       </c>
       <c r="B7">
@@ -2067,7 +1284,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>66</v>
       </c>
       <c r="B8">
@@ -2075,7 +1292,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>71</v>
       </c>
       <c r="B9">
@@ -2083,7 +1300,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>40</v>
       </c>
       <c r="B10">
@@ -2091,7 +1308,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>233</v>
       </c>
       <c r="B11">
@@ -2099,7 +1316,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>235</v>
       </c>
       <c r="B12">
@@ -2107,7 +1324,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>182</v>
       </c>
       <c r="B13">
@@ -2115,7 +1332,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>41</v>
       </c>
       <c r="B14">
@@ -2123,7 +1340,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>43</v>
       </c>
       <c r="B15">
@@ -2131,7 +1348,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>36</v>
       </c>
       <c r="B16">
@@ -2139,7 +1356,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>116</v>
       </c>
       <c r="B17">
@@ -2147,7 +1364,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>234</v>
       </c>
       <c r="B18">
@@ -2155,7 +1372,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>142</v>
       </c>
       <c r="B19">
@@ -2163,7 +1380,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>145</v>
       </c>
       <c r="B20">
@@ -2171,7 +1388,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>161</v>
       </c>
       <c r="B21">
@@ -2179,7 +1396,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>68</v>
       </c>
       <c r="B22">
@@ -2187,7 +1404,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>28</v>
       </c>
       <c r="B23">
@@ -2195,7 +1412,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>74</v>
       </c>
       <c r="B24">
@@ -2203,7 +1420,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>33</v>
       </c>
       <c r="B25">
@@ -2211,7 +1428,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>84</v>
       </c>
       <c r="B26">
@@ -2219,7 +1436,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>29</v>
       </c>
       <c r="B27">
@@ -2227,7 +1444,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>157</v>
       </c>
       <c r="B28">
@@ -2235,7 +1452,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>32</v>
       </c>
       <c r="B29">
@@ -2243,7 +1460,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>34</v>
       </c>
       <c r="B30">
@@ -2251,7 +1468,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>198</v>
       </c>
       <c r="B31">
@@ -2259,7 +1476,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>165</v>
       </c>
       <c r="B32">
@@ -2267,7 +1484,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>58</v>
       </c>
       <c r="B33">
@@ -2275,7 +1492,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>83</v>
       </c>
       <c r="B34">
@@ -2283,7 +1500,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>162</v>
       </c>
       <c r="B35">
@@ -2291,7 +1508,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>114</v>
       </c>
       <c r="B36">
@@ -2299,7 +1516,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>45</v>
       </c>
       <c r="B37">
@@ -2307,7 +1524,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>138</v>
       </c>
       <c r="B38">
@@ -2315,7 +1532,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>73</v>
       </c>
       <c r="B39">
@@ -2323,7 +1540,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>154</v>
       </c>
       <c r="B40">
@@ -2331,7 +1548,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>65</v>
       </c>
       <c r="B41">
@@ -2339,7 +1556,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>70</v>
       </c>
       <c r="B42">
@@ -2347,7 +1564,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>101</v>
       </c>
       <c r="B43">
@@ -2355,7 +1572,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>221</v>
       </c>
       <c r="B44">
@@ -2363,7 +1580,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>48</v>
       </c>
       <c r="B45">
@@ -2371,7 +1588,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>104</v>
       </c>
       <c r="B46">
@@ -2379,7 +1596,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>105</v>
       </c>
       <c r="B47">
@@ -2387,7 +1604,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>141</v>
       </c>
       <c r="B48">
@@ -2395,7 +1612,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>103</v>
       </c>
       <c r="B49">
@@ -2403,7 +1620,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>169</v>
       </c>
       <c r="B50">
@@ -2411,7 +1628,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>210</v>
       </c>
       <c r="B51">
@@ -2419,7 +1636,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>230</v>
       </c>
       <c r="B52">
@@ -2427,7 +1644,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>64</v>
       </c>
       <c r="B53">
@@ -2435,7 +1652,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>123</v>
       </c>
       <c r="B54">
@@ -2443,7 +1660,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>89</v>
       </c>
       <c r="B55">
@@ -2451,7 +1668,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>92</v>
       </c>
       <c r="B56">
@@ -2459,7 +1676,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>100</v>
       </c>
       <c r="B57">
@@ -2467,7 +1684,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>87</v>
       </c>
       <c r="B58">
@@ -2475,7 +1692,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>148</v>
       </c>
       <c r="B59">
@@ -2483,7 +1700,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>44</v>
       </c>
       <c r="B60">
@@ -2491,7 +1708,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>93</v>
       </c>
       <c r="B61">
@@ -2499,7 +1716,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>76</v>
       </c>
       <c r="B62">
@@ -2507,7 +1724,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>159</v>
       </c>
       <c r="B63">
@@ -2515,7 +1732,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>35</v>
       </c>
       <c r="B64">
@@ -2523,7 +1740,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>244</v>
       </c>
       <c r="B65">
@@ -2531,7 +1748,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>155</v>
       </c>
       <c r="B66">
@@ -2539,7 +1756,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>242</v>
       </c>
       <c r="B67">
@@ -2547,7 +1764,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>126</v>
       </c>
       <c r="B68">
@@ -2555,7 +1772,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>137</v>
       </c>
       <c r="B69">
@@ -2563,7 +1780,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>72</v>
       </c>
       <c r="B70">
@@ -2571,7 +1788,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>245</v>
       </c>
       <c r="B71">
@@ -2579,7 +1796,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>67</v>
       </c>
       <c r="B72">
@@ -2587,7 +1804,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>66</v>
       </c>
       <c r="B73">
@@ -2595,7 +1812,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>71</v>
       </c>
       <c r="B74">
@@ -2603,7 +1820,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>40</v>
       </c>
       <c r="B75">
@@ -2611,7 +1828,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>233</v>
       </c>
       <c r="B76">
@@ -2619,7 +1836,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>235</v>
       </c>
       <c r="B77">
@@ -2627,7 +1844,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>182</v>
       </c>
       <c r="B78">
@@ -2635,7 +1852,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>41</v>
       </c>
       <c r="B79">
@@ -2643,7 +1860,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>43</v>
       </c>
       <c r="B80">
@@ -2651,7 +1868,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>36</v>
       </c>
       <c r="B81">
@@ -2659,7 +1876,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>116</v>
       </c>
       <c r="B82">
@@ -2667,7 +1884,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>234</v>
       </c>
       <c r="B83">
@@ -2675,7 +1892,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>142</v>
       </c>
       <c r="B84">
@@ -2683,7 +1900,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>145</v>
       </c>
       <c r="B85">
@@ -2691,7 +1908,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>161</v>
       </c>
       <c r="B86">
@@ -2699,7 +1916,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>68</v>
       </c>
       <c r="B87">
@@ -2707,7 +1924,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>28</v>
       </c>
       <c r="B88">
@@ -2715,7 +1932,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>149</v>
       </c>
       <c r="B89">
@@ -2723,7 +1940,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>42</v>
       </c>
       <c r="B90">
@@ -2731,7 +1948,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>37</v>
       </c>
       <c r="B91">
@@ -2739,7 +1956,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>86</v>
       </c>
       <c r="B92">
@@ -2747,7 +1964,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
@@ -2755,7 +1972,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>88</v>
       </c>
       <c r="B94">
@@ -2763,7 +1980,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>90</v>
       </c>
       <c r="B95">
@@ -2771,7 +1988,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>117</v>
       </c>
       <c r="B96">
@@ -2779,7 +1996,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>118</v>
       </c>
       <c r="B97">
@@ -2787,192 +2004,12 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>173</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2981,16 +2018,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B99" sqref="A1:B112"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>155</v>
       </c>
       <c r="B1">
@@ -2998,7 +2035,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>242</v>
       </c>
       <c r="B2">
@@ -3006,7 +2043,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>126</v>
       </c>
       <c r="B3">
@@ -3014,7 +2051,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>137</v>
       </c>
       <c r="B4">
@@ -3022,7 +2059,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5">
@@ -3030,7 +2067,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>245</v>
       </c>
       <c r="B6">
@@ -3038,7 +2075,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>67</v>
       </c>
       <c r="B7">
@@ -3046,7 +2083,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>66</v>
       </c>
       <c r="B8">
@@ -3054,7 +2091,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>71</v>
       </c>
       <c r="B9">
@@ -3062,7 +2099,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>40</v>
       </c>
       <c r="B10">
@@ -3070,7 +2107,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>233</v>
       </c>
       <c r="B11">
@@ -3078,7 +2115,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>235</v>
       </c>
       <c r="B12">
@@ -3086,7 +2123,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>182</v>
       </c>
       <c r="B13">
@@ -3094,7 +2131,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>41</v>
       </c>
       <c r="B14">
@@ -3102,7 +2139,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>43</v>
       </c>
       <c r="B15">
@@ -3110,7 +2147,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>36</v>
       </c>
       <c r="B16">
@@ -3118,7 +2155,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>116</v>
       </c>
       <c r="B17">
@@ -3126,7 +2163,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>234</v>
       </c>
       <c r="B18">
@@ -3134,7 +2171,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>142</v>
       </c>
       <c r="B19">
@@ -3142,7 +2179,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>145</v>
       </c>
       <c r="B20">
@@ -3150,7 +2187,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>161</v>
       </c>
       <c r="B21">
@@ -3158,7 +2195,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>68</v>
       </c>
       <c r="B22">
@@ -3166,7 +2203,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>28</v>
       </c>
       <c r="B23">
@@ -3174,7 +2211,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>74</v>
       </c>
       <c r="B24">
@@ -3182,7 +2219,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>33</v>
       </c>
       <c r="B25">
@@ -3190,7 +2227,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>84</v>
       </c>
       <c r="B26">
@@ -3198,7 +2235,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>29</v>
       </c>
       <c r="B27">
@@ -3206,7 +2243,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>157</v>
       </c>
       <c r="B28">
@@ -3214,7 +2251,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>32</v>
       </c>
       <c r="B29">
@@ -3222,7 +2259,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>34</v>
       </c>
       <c r="B30">
@@ -3230,7 +2267,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>198</v>
       </c>
       <c r="B31">
@@ -3238,7 +2275,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>165</v>
       </c>
       <c r="B32">
@@ -3246,7 +2283,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>58</v>
       </c>
       <c r="B33">
@@ -3254,7 +2291,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>83</v>
       </c>
       <c r="B34">
@@ -3262,7 +2299,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>162</v>
       </c>
       <c r="B35">
@@ -3270,7 +2307,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>114</v>
       </c>
       <c r="B36">
@@ -3278,7 +2315,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>45</v>
       </c>
       <c r="B37">
@@ -3286,7 +2323,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>138</v>
       </c>
       <c r="B38">
@@ -3294,7 +2331,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>73</v>
       </c>
       <c r="B39">
@@ -3302,7 +2339,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>154</v>
       </c>
       <c r="B40">
@@ -3310,7 +2347,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>65</v>
       </c>
       <c r="B41">
@@ -3318,7 +2355,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>70</v>
       </c>
       <c r="B42">
@@ -3326,7 +2363,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>101</v>
       </c>
       <c r="B43">
@@ -3334,7 +2371,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>221</v>
       </c>
       <c r="B44">
@@ -3342,7 +2379,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>48</v>
       </c>
       <c r="B45">
@@ -3350,7 +2387,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>104</v>
       </c>
       <c r="B46">
@@ -3358,7 +2395,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>105</v>
       </c>
       <c r="B47">
@@ -3366,7 +2403,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>141</v>
       </c>
       <c r="B48">
@@ -3374,7 +2411,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>103</v>
       </c>
       <c r="B49">
@@ -3382,7 +2419,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>169</v>
       </c>
       <c r="B50">
@@ -3390,7 +2427,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>210</v>
       </c>
       <c r="B51">
@@ -3398,7 +2435,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>230</v>
       </c>
       <c r="B52">
@@ -3406,7 +2443,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>64</v>
       </c>
       <c r="B53">
@@ -3414,7 +2451,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>123</v>
       </c>
       <c r="B54">
@@ -3422,7 +2459,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>89</v>
       </c>
       <c r="B55">
@@ -3430,7 +2467,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>92</v>
       </c>
       <c r="B56">
@@ -3438,7 +2475,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>100</v>
       </c>
       <c r="B57">
@@ -3446,7 +2483,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>87</v>
       </c>
       <c r="B58">
@@ -3454,7 +2491,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>148</v>
       </c>
       <c r="B59">
@@ -3462,7 +2499,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>44</v>
       </c>
       <c r="B60">
@@ -3470,7 +2507,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>93</v>
       </c>
       <c r="B61">
@@ -3478,7 +2515,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>76</v>
       </c>
       <c r="B62">
@@ -3486,7 +2523,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>159</v>
       </c>
       <c r="B63">
@@ -3494,7 +2531,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>35</v>
       </c>
       <c r="B64">
@@ -3502,7 +2539,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>244</v>
       </c>
       <c r="B65">
@@ -3510,7 +2547,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>155</v>
       </c>
       <c r="B66">
@@ -3518,7 +2555,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>242</v>
       </c>
       <c r="B67">
@@ -3526,7 +2563,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>126</v>
       </c>
       <c r="B68">
@@ -3534,7 +2571,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>137</v>
       </c>
       <c r="B69">
@@ -3542,7 +2579,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>72</v>
       </c>
       <c r="B70">
@@ -3550,7 +2587,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>245</v>
       </c>
       <c r="B71">
@@ -3558,7 +2595,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>67</v>
       </c>
       <c r="B72">
@@ -3566,7 +2603,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>66</v>
       </c>
       <c r="B73">
@@ -3574,7 +2611,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>71</v>
       </c>
       <c r="B74">
@@ -3582,7 +2619,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>40</v>
       </c>
       <c r="B75">
@@ -3590,7 +2627,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>233</v>
       </c>
       <c r="B76">
@@ -3598,7 +2635,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>235</v>
       </c>
       <c r="B77">
@@ -3606,7 +2643,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>182</v>
       </c>
       <c r="B78">
@@ -3614,7 +2651,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>41</v>
       </c>
       <c r="B79">
@@ -3622,7 +2659,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>43</v>
       </c>
       <c r="B80">
@@ -3630,7 +2667,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>36</v>
       </c>
       <c r="B81">
@@ -3638,7 +2675,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>116</v>
       </c>
       <c r="B82">
@@ -3646,7 +2683,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>234</v>
       </c>
       <c r="B83">
@@ -3654,7 +2691,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>142</v>
       </c>
       <c r="B84">
@@ -3662,7 +2699,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>145</v>
       </c>
       <c r="B85">
@@ -3670,7 +2707,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>161</v>
       </c>
       <c r="B86">
@@ -3678,7 +2715,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>68</v>
       </c>
       <c r="B87">
@@ -3686,7 +2723,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>28</v>
       </c>
       <c r="B88">
@@ -3694,7 +2731,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>149</v>
       </c>
       <c r="B89">
@@ -3702,7 +2739,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>42</v>
       </c>
       <c r="B90">
@@ -3710,7 +2747,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>37</v>
       </c>
       <c r="B91">
@@ -3718,7 +2755,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>86</v>
       </c>
       <c r="B92">
@@ -3726,7 +2763,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
@@ -3734,7 +2771,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>88</v>
       </c>
       <c r="B94">
@@ -3742,7 +2779,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>90</v>
       </c>
       <c r="B95">
@@ -3750,7 +2787,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>117</v>
       </c>
       <c r="B96">
@@ -3758,7 +2795,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>118</v>
       </c>
       <c r="B97">
@@ -3766,7 +2803,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>173</v>
       </c>
       <c r="B98">
@@ -3774,7 +2811,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>246</v>
       </c>
       <c r="B99">
@@ -3782,7 +2819,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>63</v>
       </c>
       <c r="B100">
@@ -3790,7 +2827,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>168</v>
       </c>
       <c r="B101">
@@ -3798,7 +2835,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>102</v>
       </c>
       <c r="B102">
@@ -3806,7 +2843,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>57</v>
       </c>
       <c r="B103">
@@ -3814,7 +2851,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>153</v>
       </c>
       <c r="B104">
@@ -3822,7 +2859,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
+      <c r="A105" s="1">
         <v>62</v>
       </c>
       <c r="B105">
@@ -3830,7 +2867,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>95</v>
       </c>
       <c r="B106">
@@ -3838,7 +2875,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>96</v>
       </c>
       <c r="B107">
@@ -3846,7 +2883,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>98</v>
       </c>
       <c r="B108">
@@ -3854,7 +2891,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
+      <c r="A109" s="1">
         <v>222</v>
       </c>
       <c r="B109">
@@ -3862,7 +2899,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>99</v>
       </c>
       <c r="B110">
@@ -3870,7 +2907,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>53</v>
       </c>
       <c r="B111">
@@ -3878,150 +2915,12 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>54</v>
       </c>
       <c r="B112">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4032,14 +2931,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B113" sqref="A1:B137"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>155</v>
       </c>
       <c r="B1">
@@ -4047,7 +2946,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>242</v>
       </c>
       <c r="B2">
@@ -4055,7 +2954,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>126</v>
       </c>
       <c r="B3">
@@ -4063,7 +2962,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>137</v>
       </c>
       <c r="B4">
@@ -4071,7 +2970,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5">
@@ -4079,7 +2978,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>245</v>
       </c>
       <c r="B6">
@@ -4087,7 +2986,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>67</v>
       </c>
       <c r="B7">
@@ -4095,7 +2994,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>66</v>
       </c>
       <c r="B8">
@@ -4103,7 +3002,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>71</v>
       </c>
       <c r="B9">
@@ -4111,7 +3010,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>40</v>
       </c>
       <c r="B10">
@@ -4119,7 +3018,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>233</v>
       </c>
       <c r="B11">
@@ -4127,7 +3026,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>235</v>
       </c>
       <c r="B12">
@@ -4135,7 +3034,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>182</v>
       </c>
       <c r="B13">
@@ -4143,7 +3042,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>41</v>
       </c>
       <c r="B14">
@@ -4151,7 +3050,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>43</v>
       </c>
       <c r="B15">
@@ -4159,7 +3058,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>36</v>
       </c>
       <c r="B16">
@@ -4167,7 +3066,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>116</v>
       </c>
       <c r="B17">
@@ -4175,7 +3074,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>234</v>
       </c>
       <c r="B18">
@@ -4183,7 +3082,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>142</v>
       </c>
       <c r="B19">
@@ -4191,7 +3090,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>145</v>
       </c>
       <c r="B20">
@@ -4199,7 +3098,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>161</v>
       </c>
       <c r="B21">
@@ -4207,7 +3106,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>68</v>
       </c>
       <c r="B22">
@@ -4215,7 +3114,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>28</v>
       </c>
       <c r="B23">
@@ -4223,7 +3122,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>74</v>
       </c>
       <c r="B24">
@@ -4231,7 +3130,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>33</v>
       </c>
       <c r="B25">
@@ -4239,7 +3138,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>84</v>
       </c>
       <c r="B26">
@@ -4247,7 +3146,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>29</v>
       </c>
       <c r="B27">
@@ -4255,7 +3154,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>157</v>
       </c>
       <c r="B28">
@@ -4263,7 +3162,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>32</v>
       </c>
       <c r="B29">
@@ -4271,7 +3170,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>34</v>
       </c>
       <c r="B30">
@@ -4279,7 +3178,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>198</v>
       </c>
       <c r="B31">
@@ -4287,7 +3186,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>165</v>
       </c>
       <c r="B32">
@@ -4295,7 +3194,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>58</v>
       </c>
       <c r="B33">
@@ -4303,7 +3202,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>83</v>
       </c>
       <c r="B34">
@@ -4311,7 +3210,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>162</v>
       </c>
       <c r="B35">
@@ -4319,7 +3218,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>114</v>
       </c>
       <c r="B36">
@@ -4327,7 +3226,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>45</v>
       </c>
       <c r="B37">
@@ -4335,7 +3234,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>138</v>
       </c>
       <c r="B38">
@@ -4343,7 +3242,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>73</v>
       </c>
       <c r="B39">
@@ -4351,7 +3250,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>154</v>
       </c>
       <c r="B40">
@@ -4359,7 +3258,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>65</v>
       </c>
       <c r="B41">
@@ -4367,7 +3266,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>70</v>
       </c>
       <c r="B42">
@@ -4375,7 +3274,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>101</v>
       </c>
       <c r="B43">
@@ -4383,7 +3282,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>221</v>
       </c>
       <c r="B44">
@@ -4391,7 +3290,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>48</v>
       </c>
       <c r="B45">
@@ -4399,7 +3298,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>104</v>
       </c>
       <c r="B46">
@@ -4407,7 +3306,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>105</v>
       </c>
       <c r="B47">
@@ -4415,7 +3314,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>141</v>
       </c>
       <c r="B48">
@@ -4423,7 +3322,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>103</v>
       </c>
       <c r="B49">
@@ -4431,7 +3330,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>169</v>
       </c>
       <c r="B50">
@@ -4439,7 +3338,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>210</v>
       </c>
       <c r="B51">
@@ -4447,7 +3346,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>230</v>
       </c>
       <c r="B52">
@@ -4455,7 +3354,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>64</v>
       </c>
       <c r="B53">
@@ -4463,7 +3362,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>123</v>
       </c>
       <c r="B54">
@@ -4471,7 +3370,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>89</v>
       </c>
       <c r="B55">
@@ -4479,7 +3378,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>92</v>
       </c>
       <c r="B56">
@@ -4487,7 +3386,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>100</v>
       </c>
       <c r="B57">
@@ -4495,7 +3394,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>87</v>
       </c>
       <c r="B58">
@@ -4503,7 +3402,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>148</v>
       </c>
       <c r="B59">
@@ -4511,7 +3410,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>44</v>
       </c>
       <c r="B60">
@@ -4519,7 +3418,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>93</v>
       </c>
       <c r="B61">
@@ -4527,7 +3426,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>76</v>
       </c>
       <c r="B62">
@@ -4535,7 +3434,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>159</v>
       </c>
       <c r="B63">
@@ -4543,7 +3442,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>35</v>
       </c>
       <c r="B64">
@@ -4551,7 +3450,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>244</v>
       </c>
       <c r="B65">
@@ -4559,7 +3458,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>155</v>
       </c>
       <c r="B66">
@@ -4567,7 +3466,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>242</v>
       </c>
       <c r="B67">
@@ -4575,7 +3474,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>126</v>
       </c>
       <c r="B68">
@@ -4583,7 +3482,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>137</v>
       </c>
       <c r="B69">
@@ -4591,7 +3490,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>72</v>
       </c>
       <c r="B70">
@@ -4599,7 +3498,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>245</v>
       </c>
       <c r="B71">
@@ -4607,7 +3506,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>67</v>
       </c>
       <c r="B72">
@@ -4615,7 +3514,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>66</v>
       </c>
       <c r="B73">
@@ -4623,7 +3522,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>71</v>
       </c>
       <c r="B74">
@@ -4631,7 +3530,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>40</v>
       </c>
       <c r="B75">
@@ -4639,7 +3538,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>233</v>
       </c>
       <c r="B76">
@@ -4647,7 +3546,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>235</v>
       </c>
       <c r="B77">
@@ -4655,7 +3554,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>182</v>
       </c>
       <c r="B78">
@@ -4663,7 +3562,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>41</v>
       </c>
       <c r="B79">
@@ -4671,7 +3570,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>43</v>
       </c>
       <c r="B80">
@@ -4679,7 +3578,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>36</v>
       </c>
       <c r="B81">
@@ -4687,7 +3586,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>116</v>
       </c>
       <c r="B82">
@@ -4695,7 +3594,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>234</v>
       </c>
       <c r="B83">
@@ -4703,7 +3602,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>142</v>
       </c>
       <c r="B84">
@@ -4711,7 +3610,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>145</v>
       </c>
       <c r="B85">
@@ -4719,7 +3618,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>161</v>
       </c>
       <c r="B86">
@@ -4727,7 +3626,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>68</v>
       </c>
       <c r="B87">
@@ -4735,7 +3634,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>28</v>
       </c>
       <c r="B88">
@@ -4743,7 +3642,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>149</v>
       </c>
       <c r="B89">
@@ -4751,7 +3650,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>42</v>
       </c>
       <c r="B90">
@@ -4759,7 +3658,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>37</v>
       </c>
       <c r="B91">
@@ -4767,7 +3666,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>86</v>
       </c>
       <c r="B92">
@@ -4775,7 +3674,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
@@ -4783,7 +3682,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>88</v>
       </c>
       <c r="B94">
@@ -4791,7 +3690,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>90</v>
       </c>
       <c r="B95">
@@ -4799,7 +3698,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>117</v>
       </c>
       <c r="B96">
@@ -4807,7 +3706,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>118</v>
       </c>
       <c r="B97">
@@ -4815,7 +3714,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>173</v>
       </c>
       <c r="B98">
@@ -4823,7 +3722,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>246</v>
       </c>
       <c r="B99">
@@ -4831,7 +3730,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>63</v>
       </c>
       <c r="B100">
@@ -4839,7 +3738,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>168</v>
       </c>
       <c r="B101">
@@ -4847,7 +3746,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>102</v>
       </c>
       <c r="B102">
@@ -4855,7 +3754,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>57</v>
       </c>
       <c r="B103">
@@ -4863,7 +3762,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>153</v>
       </c>
       <c r="B104">
@@ -4871,7 +3770,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
+      <c r="A105" s="1">
         <v>62</v>
       </c>
       <c r="B105">
@@ -4879,7 +3778,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>95</v>
       </c>
       <c r="B106">
@@ -4887,7 +3786,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>96</v>
       </c>
       <c r="B107">
@@ -4895,7 +3794,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>98</v>
       </c>
       <c r="B108">
@@ -4903,7 +3802,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
+      <c r="A109" s="1">
         <v>222</v>
       </c>
       <c r="B109">
@@ -4911,7 +3810,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>99</v>
       </c>
       <c r="B110">
@@ -4919,7 +3818,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>53</v>
       </c>
       <c r="B111">
@@ -4927,7 +3826,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>54</v>
       </c>
       <c r="B112">
@@ -4935,7 +3834,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>138</v>
       </c>
       <c r="B113">
@@ -4943,7 +3842,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>73</v>
       </c>
       <c r="B114">
@@ -4951,7 +3850,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+      <c r="A115" s="1">
         <v>154</v>
       </c>
       <c r="B115">
@@ -4959,7 +3858,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+      <c r="A116" s="1">
         <v>65</v>
       </c>
       <c r="B116">
@@ -4967,7 +3866,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
+      <c r="A117" s="1">
         <v>70</v>
       </c>
       <c r="B117">
@@ -4975,7 +3874,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>101</v>
       </c>
       <c r="B118">
@@ -4983,7 +3882,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+      <c r="A119" s="1">
         <v>221</v>
       </c>
       <c r="B119">
@@ -4991,7 +3890,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+      <c r="A120" s="1">
         <v>48</v>
       </c>
       <c r="B120">
@@ -4999,7 +3898,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
+      <c r="A121" s="1">
         <v>104</v>
       </c>
       <c r="B121">
@@ -5007,7 +3906,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+      <c r="A122" s="1">
         <v>105</v>
       </c>
       <c r="B122">
@@ -5015,7 +3914,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+      <c r="A123" s="1">
         <v>141</v>
       </c>
       <c r="B123">
@@ -5023,7 +3922,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+      <c r="A124" s="1">
         <v>103</v>
       </c>
       <c r="B124">
@@ -5031,7 +3930,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+      <c r="A125" s="1">
         <v>169</v>
       </c>
       <c r="B125">
@@ -5039,7 +3938,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+      <c r="A126" s="1">
         <v>210</v>
       </c>
       <c r="B126">
@@ -5047,7 +3946,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+      <c r="A127" s="1">
         <v>236</v>
       </c>
       <c r="B127">
@@ -5055,7 +3954,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+      <c r="A128" s="1">
         <v>56</v>
       </c>
       <c r="B128">
@@ -5063,7 +3962,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+      <c r="A129" s="1">
         <v>133</v>
       </c>
       <c r="B129">
@@ -5071,7 +3970,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+      <c r="A130" s="1">
         <v>55</v>
       </c>
       <c r="B130">
@@ -5079,7 +3978,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
+      <c r="A131" s="1">
         <v>139</v>
       </c>
       <c r="B131">
@@ -5087,7 +3986,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
+      <c r="A132" s="1">
         <v>94</v>
       </c>
       <c r="B132">
@@ -5095,7 +3994,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
+      <c r="A133" s="1">
         <v>52</v>
       </c>
       <c r="B133">
@@ -5103,7 +4002,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
+      <c r="A134" s="1">
         <v>61</v>
       </c>
       <c r="B134">
@@ -5111,7 +4010,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+      <c r="A135" s="1">
         <v>50</v>
       </c>
       <c r="B135">
@@ -5119,7 +4018,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
+      <c r="A136" s="1">
         <v>119</v>
       </c>
       <c r="B136">
@@ -5127,7 +4026,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
+      <c r="A137" s="1">
         <v>54</v>
       </c>
       <c r="B137">
@@ -5144,14 +4043,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F168" sqref="F168"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>155</v>
       </c>
       <c r="B1">
@@ -5159,7 +4058,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>242</v>
       </c>
       <c r="B2">
@@ -5167,7 +4066,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>126</v>
       </c>
       <c r="B3">
@@ -5175,7 +4074,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>137</v>
       </c>
       <c r="B4">
@@ -5183,7 +4082,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>72</v>
       </c>
       <c r="B5">
@@ -5191,7 +4090,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>245</v>
       </c>
       <c r="B6">
@@ -5199,7 +4098,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>67</v>
       </c>
       <c r="B7">
@@ -5207,7 +4106,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>66</v>
       </c>
       <c r="B8">
@@ -5215,7 +4114,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>71</v>
       </c>
       <c r="B9">
@@ -5223,7 +4122,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>40</v>
       </c>
       <c r="B10">
@@ -5231,7 +4130,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>233</v>
       </c>
       <c r="B11">
@@ -5239,7 +4138,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>235</v>
       </c>
       <c r="B12">
@@ -5247,7 +4146,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>182</v>
       </c>
       <c r="B13">
@@ -5255,7 +4154,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>41</v>
       </c>
       <c r="B14">
@@ -5263,7 +4162,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>43</v>
       </c>
       <c r="B15">
@@ -5271,7 +4170,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>36</v>
       </c>
       <c r="B16">
@@ -5279,7 +4178,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>116</v>
       </c>
       <c r="B17">
@@ -5287,7 +4186,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>234</v>
       </c>
       <c r="B18">
@@ -5295,7 +4194,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>142</v>
       </c>
       <c r="B19">
@@ -5303,7 +4202,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>145</v>
       </c>
       <c r="B20">
@@ -5311,7 +4210,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>161</v>
       </c>
       <c r="B21">
@@ -5319,7 +4218,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>68</v>
       </c>
       <c r="B22">
@@ -5327,7 +4226,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>28</v>
       </c>
       <c r="B23">
@@ -5335,7 +4234,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>74</v>
       </c>
       <c r="B24">
@@ -5343,7 +4242,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>33</v>
       </c>
       <c r="B25">
@@ -5351,7 +4250,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>84</v>
       </c>
       <c r="B26">
@@ -5359,7 +4258,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>29</v>
       </c>
       <c r="B27">
@@ -5367,7 +4266,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>157</v>
       </c>
       <c r="B28">
@@ -5375,7 +4274,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>32</v>
       </c>
       <c r="B29">
@@ -5383,7 +4282,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>34</v>
       </c>
       <c r="B30">
@@ -5391,7 +4290,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>198</v>
       </c>
       <c r="B31">
@@ -5399,7 +4298,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>165</v>
       </c>
       <c r="B32">
@@ -5407,7 +4306,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>58</v>
       </c>
       <c r="B33">
@@ -5415,7 +4314,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>83</v>
       </c>
       <c r="B34">
@@ -5423,7 +4322,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>162</v>
       </c>
       <c r="B35">
@@ -5431,7 +4330,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>114</v>
       </c>
       <c r="B36">
@@ -5439,7 +4338,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>45</v>
       </c>
       <c r="B37">
@@ -5447,7 +4346,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>138</v>
       </c>
       <c r="B38">
@@ -5455,7 +4354,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>73</v>
       </c>
       <c r="B39">
@@ -5463,7 +4362,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>154</v>
       </c>
       <c r="B40">
@@ -5471,7 +4370,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>65</v>
       </c>
       <c r="B41">
@@ -5479,7 +4378,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>70</v>
       </c>
       <c r="B42">
@@ -5487,7 +4386,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>101</v>
       </c>
       <c r="B43">
@@ -5495,7 +4394,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>221</v>
       </c>
       <c r="B44">
@@ -5503,7 +4402,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>48</v>
       </c>
       <c r="B45">
@@ -5511,7 +4410,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>104</v>
       </c>
       <c r="B46">
@@ -5519,7 +4418,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>105</v>
       </c>
       <c r="B47">
@@ -5527,7 +4426,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>141</v>
       </c>
       <c r="B48">
@@ -5535,7 +4434,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>103</v>
       </c>
       <c r="B49">
@@ -5543,7 +4442,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>169</v>
       </c>
       <c r="B50">
@@ -5551,7 +4450,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>210</v>
       </c>
       <c r="B51">
@@ -5559,7 +4458,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>230</v>
       </c>
       <c r="B52">
@@ -5567,7 +4466,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>64</v>
       </c>
       <c r="B53">
@@ -5575,7 +4474,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>123</v>
       </c>
       <c r="B54">
@@ -5583,7 +4482,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>89</v>
       </c>
       <c r="B55">
@@ -5591,7 +4490,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>92</v>
       </c>
       <c r="B56">
@@ -5599,7 +4498,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>100</v>
       </c>
       <c r="B57">
@@ -5607,7 +4506,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>87</v>
       </c>
       <c r="B58">
@@ -5615,7 +4514,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>148</v>
       </c>
       <c r="B59">
@@ -5623,7 +4522,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>44</v>
       </c>
       <c r="B60">
@@ -5631,7 +4530,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>93</v>
       </c>
       <c r="B61">
@@ -5639,7 +4538,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>76</v>
       </c>
       <c r="B62">
@@ -5647,7 +4546,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>159</v>
       </c>
       <c r="B63">
@@ -5655,7 +4554,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>35</v>
       </c>
       <c r="B64">
@@ -5663,7 +4562,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>244</v>
       </c>
       <c r="B65">
@@ -5671,7 +4570,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>155</v>
       </c>
       <c r="B66">
@@ -5679,7 +4578,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>242</v>
       </c>
       <c r="B67">
@@ -5687,7 +4586,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>126</v>
       </c>
       <c r="B68">
@@ -5695,7 +4594,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>137</v>
       </c>
       <c r="B69">
@@ -5703,7 +4602,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>72</v>
       </c>
       <c r="B70">
@@ -5711,7 +4610,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>245</v>
       </c>
       <c r="B71">
@@ -5719,7 +4618,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>67</v>
       </c>
       <c r="B72">
@@ -5727,7 +4626,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>66</v>
       </c>
       <c r="B73">
@@ -5735,7 +4634,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>71</v>
       </c>
       <c r="B74">
@@ -5743,7 +4642,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>40</v>
       </c>
       <c r="B75">
@@ -5751,7 +4650,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>233</v>
       </c>
       <c r="B76">
@@ -5759,7 +4658,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>235</v>
       </c>
       <c r="B77">
@@ -5767,7 +4666,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>182</v>
       </c>
       <c r="B78">
@@ -5775,7 +4674,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>41</v>
       </c>
       <c r="B79">
@@ -5783,7 +4682,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>43</v>
       </c>
       <c r="B80">
@@ -5791,7 +4690,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>36</v>
       </c>
       <c r="B81">
@@ -5799,7 +4698,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>116</v>
       </c>
       <c r="B82">
@@ -5807,7 +4706,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>234</v>
       </c>
       <c r="B83">
@@ -5815,7 +4714,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>142</v>
       </c>
       <c r="B84">
@@ -5823,7 +4722,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>145</v>
       </c>
       <c r="B85">
@@ -5831,7 +4730,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>161</v>
       </c>
       <c r="B86">
@@ -5839,7 +4738,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>68</v>
       </c>
       <c r="B87">
@@ -5847,7 +4746,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>28</v>
       </c>
       <c r="B88">
@@ -5855,7 +4754,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>149</v>
       </c>
       <c r="B89">
@@ -5863,7 +4762,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>42</v>
       </c>
       <c r="B90">
@@ -5871,7 +4770,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>37</v>
       </c>
       <c r="B91">
@@ -5879,7 +4778,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>86</v>
       </c>
       <c r="B92">
@@ -5887,7 +4786,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
@@ -5895,7 +4794,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>88</v>
       </c>
       <c r="B94">
@@ -5903,7 +4802,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>90</v>
       </c>
       <c r="B95">
@@ -5911,7 +4810,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>117</v>
       </c>
       <c r="B96">
@@ -5919,7 +4818,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>118</v>
       </c>
       <c r="B97">
@@ -5927,7 +4826,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>173</v>
       </c>
       <c r="B98">
@@ -5935,7 +4834,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>246</v>
       </c>
       <c r="B99">
@@ -5943,7 +4842,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>63</v>
       </c>
       <c r="B100">
@@ -5951,7 +4850,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>168</v>
       </c>
       <c r="B101">
@@ -5959,7 +4858,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>102</v>
       </c>
       <c r="B102">
@@ -5967,7 +4866,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>57</v>
       </c>
       <c r="B103">
@@ -5975,7 +4874,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>153</v>
       </c>
       <c r="B104">
@@ -5983,7 +4882,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
+      <c r="A105" s="1">
         <v>62</v>
       </c>
       <c r="B105">
@@ -5991,7 +4890,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>95</v>
       </c>
       <c r="B106">
@@ -5999,7 +4898,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>96</v>
       </c>
       <c r="B107">
@@ -6007,7 +4906,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>98</v>
       </c>
       <c r="B108">
@@ -6015,7 +4914,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
+      <c r="A109" s="1">
         <v>222</v>
       </c>
       <c r="B109">
@@ -6023,7 +4922,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>99</v>
       </c>
       <c r="B110">
@@ -6031,7 +4930,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>53</v>
       </c>
       <c r="B111">
@@ -6039,7 +4938,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>54</v>
       </c>
       <c r="B112">
@@ -6047,7 +4946,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>138</v>
       </c>
       <c r="B113">
@@ -6055,7 +4954,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>73</v>
       </c>
       <c r="B114">
@@ -6063,7 +4962,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+      <c r="A115" s="1">
         <v>154</v>
       </c>
       <c r="B115">
@@ -6071,7 +4970,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+      <c r="A116" s="1">
         <v>65</v>
       </c>
       <c r="B116">
@@ -6079,7 +4978,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
+      <c r="A117" s="1">
         <v>70</v>
       </c>
       <c r="B117">
@@ -6087,7 +4986,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>101</v>
       </c>
       <c r="B118">
@@ -6095,7 +4994,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+      <c r="A119" s="1">
         <v>221</v>
       </c>
       <c r="B119">
@@ -6103,7 +5002,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+      <c r="A120" s="1">
         <v>48</v>
       </c>
       <c r="B120">
@@ -6111,7 +5010,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
+      <c r="A121" s="1">
         <v>104</v>
       </c>
       <c r="B121">
@@ -6119,7 +5018,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+      <c r="A122" s="1">
         <v>105</v>
       </c>
       <c r="B122">
@@ -6127,7 +5026,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+      <c r="A123" s="1">
         <v>141</v>
       </c>
       <c r="B123">
@@ -6135,7 +5034,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+      <c r="A124" s="1">
         <v>103</v>
       </c>
       <c r="B124">
@@ -6143,7 +5042,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+      <c r="A125" s="1">
         <v>169</v>
       </c>
       <c r="B125">
@@ -6151,7 +5050,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+      <c r="A126" s="1">
         <v>210</v>
       </c>
       <c r="B126">
@@ -6159,7 +5058,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+      <c r="A127" s="1">
         <v>236</v>
       </c>
       <c r="B127">
@@ -6167,7 +5066,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+      <c r="A128" s="1">
         <v>56</v>
       </c>
       <c r="B128">
@@ -6175,7 +5074,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+      <c r="A129" s="1">
         <v>133</v>
       </c>
       <c r="B129">
@@ -6183,7 +5082,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+      <c r="A130" s="1">
         <v>55</v>
       </c>
       <c r="B130">
@@ -6191,7 +5090,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
+      <c r="A131" s="1">
         <v>139</v>
       </c>
       <c r="B131">
@@ -6199,7 +5098,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
+      <c r="A132" s="1">
         <v>94</v>
       </c>
       <c r="B132">
@@ -6207,7 +5106,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
+      <c r="A133" s="1">
         <v>52</v>
       </c>
       <c r="B133">
@@ -6215,7 +5114,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
+      <c r="A134" s="1">
         <v>61</v>
       </c>
       <c r="B134">
@@ -6223,7 +5122,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
+      <c r="A135" s="1">
         <v>50</v>
       </c>
       <c r="B135">
@@ -6231,7 +5130,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
+      <c r="A136" s="1">
         <v>119</v>
       </c>
       <c r="B136">
@@ -6239,7 +5138,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
+      <c r="A137" s="1">
         <v>54</v>
       </c>
       <c r="B137">
@@ -6247,7 +5146,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
+      <c r="A138" s="1">
         <v>155</v>
       </c>
       <c r="B138">
@@ -6255,7 +5154,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
+      <c r="A139" s="1">
         <v>242</v>
       </c>
       <c r="B139">
@@ -6263,7 +5162,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
+      <c r="A140" s="1">
         <v>126</v>
       </c>
       <c r="B140">
@@ -6271,7 +5170,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
+      <c r="A141" s="1">
         <v>137</v>
       </c>
       <c r="B141">
@@ -6279,7 +5178,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
+      <c r="A142" s="1">
         <v>72</v>
       </c>
       <c r="B142">
@@ -6287,7 +5186,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
+      <c r="A143" s="1">
         <v>245</v>
       </c>
       <c r="B143">
@@ -6295,7 +5194,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="2">
+      <c r="A144" s="1">
         <v>67</v>
       </c>
       <c r="B144">
@@ -6303,7 +5202,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
+      <c r="A145" s="1">
         <v>66</v>
       </c>
       <c r="B145">
@@ -6311,7 +5210,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="2">
+      <c r="A146" s="1">
         <v>71</v>
       </c>
       <c r="B146">
@@ -6319,7 +5218,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="2">
+      <c r="A147" s="1">
         <v>40</v>
       </c>
       <c r="B147">
@@ -6327,7 +5226,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="2">
+      <c r="A148" s="1">
         <v>233</v>
       </c>
       <c r="B148">
@@ -6335,7 +5234,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="2">
+      <c r="A149" s="1">
         <v>235</v>
       </c>
       <c r="B149">
@@ -6343,7 +5242,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="2">
+      <c r="A150" s="1">
         <v>182</v>
       </c>
       <c r="B150">
@@ -6351,7 +5250,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="2">
+      <c r="A151" s="1">
         <v>41</v>
       </c>
       <c r="B151">
@@ -6359,7 +5258,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="2">
+      <c r="A152" s="1">
         <v>43</v>
       </c>
       <c r="B152">
@@ -6367,7 +5266,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="2">
+      <c r="A153" s="1">
         <v>36</v>
       </c>
       <c r="B153">
@@ -6375,7 +5274,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="2">
+      <c r="A154" s="1">
         <v>116</v>
       </c>
       <c r="B154">
@@ -6383,7 +5282,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="2">
+      <c r="A155" s="1">
         <v>234</v>
       </c>
       <c r="B155">
@@ -6391,7 +5290,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
+      <c r="A156" s="1">
         <v>142</v>
       </c>
       <c r="B156">
@@ -6399,7 +5298,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
+      <c r="A157" s="1">
         <v>145</v>
       </c>
       <c r="B157">
@@ -6407,7 +5306,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="2">
+      <c r="A158" s="1">
         <v>161</v>
       </c>
       <c r="B158">
@@ -6415,7 +5314,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="2">
+      <c r="A159" s="1">
         <v>68</v>
       </c>
       <c r="B159">
@@ -6423,7 +5322,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="2">
+      <c r="A160" s="1">
         <v>28</v>
       </c>
       <c r="B160">
@@ -6431,7 +5330,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="2">
+      <c r="A161" s="1">
         <v>60</v>
       </c>
       <c r="B161">
@@ -6439,7 +5338,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="2">
+      <c r="A162" s="1">
         <v>177</v>
       </c>
       <c r="B162">
@@ -6447,7 +5346,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="2">
+      <c r="A163" s="1">
         <v>158</v>
       </c>
       <c r="B163">
@@ -6455,7 +5354,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="2">
+      <c r="A164" s="1">
         <v>130</v>
       </c>
       <c r="B164">
@@ -6463,7 +5362,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="2">
+      <c r="A165" s="1">
         <v>167</v>
       </c>
       <c r="B165">
@@ -6471,7 +5370,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="2">
+      <c r="A166" s="1">
         <v>112</v>
       </c>
       <c r="B166">
@@ -6479,7 +5378,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="2">
+      <c r="A167" s="1">
         <v>111</v>
       </c>
       <c r="B167">
@@ -6487,7 +5386,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="2">
+      <c r="A168" s="1">
         <v>27</v>
       </c>
       <c r="B168">
@@ -6495,7 +5394,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
+      <c r="A169" s="1">
         <v>108</v>
       </c>
       <c r="B169">
@@ -6503,7 +5402,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
+      <c r="A170" s="1">
         <v>107</v>
       </c>
       <c r="B170">
@@ -6511,7 +5410,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="2">
+      <c r="A171" s="1">
         <v>106</v>
       </c>
       <c r="B171">
@@ -6519,7 +5418,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="2">
+      <c r="A172" s="1">
         <v>120</v>
       </c>
       <c r="B172">
@@ -6527,7 +5426,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="2">
+      <c r="A173" s="1">
         <v>179</v>
       </c>
       <c r="B173">
